--- a/test_data/测试数据1.xlsx
+++ b/test_data/测试数据1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dengzijun\gitee\exam_result_viewer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dengzijun\gitee\exam_result_viewer\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C820EE5-5C67-46DF-8D4F-2CFB713871F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86EE21-EA99-4B4A-AED4-EEB1610F67E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -560,9 +560,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -592,7 +590,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -624,9 +622,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -752,9 +748,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
